--- a/biology/Botanique/Dictyochaceae/Dictyochaceae.xlsx
+++ b/biology/Botanique/Dictyochaceae/Dictyochaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dictyochaceae sont une famille d'algues marines unicellulaires du phytoplancton, seule famille vivante actuelle de l'ordre des Dictyochales. Ces algues sont remarquables par leur squelette fait de dioxyde de silicium (semblable à l'opale amorphe des  phytolites), qui se produit au moins à une étape de leur vie. 
 Les spicules siliceuses de ces organismes se conservent très bien dans les sédiments, en particulier ceux de la période géologique dite du « Néogène », formant des fossiles qui entrent dans la constitution des roches. Ce groupe, appelé Silicoflagées par les paléontologues (anciennement aussi classé dans l'ordre des Silicoflagellata ou Silicoflagellida), est pauvre en espèces vivantes, mais nombre d'espèces fossiles ont été décrites, sur la base des formes très variées de leur squelette. 
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Dictyocha formé du préfixe dicty-, « filet ; réseau », et du suffixe -ocha, « qui a ; qui supporte », littéralement « doté d'un réseau », en référence à la structure « en réseau » du squelette de cet organisme unicellulaire.
 </t>
@@ -544,7 +558,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La taxonomie des Dictyochaceae est quelque peu confuse, car de nombreuses espèces ont été placées dans de nouveaux genres ou des noms génériques traditionnellement utilisés ont été remplacés par d'autres. Il semble exister un certain nombre d'espèces non décrites. Certaines espèces[Lesquelles ?] ne sont connues qu'à partir d'échantillons de séquences d'ADN environnementaux, mais dont l'organisme associé n'a pas été découvert. Seules quelques espèces de trois genres[Lesquelles ?] ont été étudiées.
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (13 jan. 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (13 jan. 2022) :
 Arctyocha  T.V.Desikachary &amp; P.Prema
 Bachmannocena  S.Locker
 Caryocha  S.Bukry &amp; S.Monechi
@@ -595,12 +613,12 @@
 Septamesocena  A.Bachmann
 Stephanocha  K.McCartney &amp; R.W.Jordan
 Vicicitus  F.H.Chang
-Selon ITIS      (13 janvier 2022)[2] :
+Selon ITIS      (13 janvier 2022) :
 Dictyocha Ehrenb.
 Distephanus Cassini, 1817
 Ebria Borgert, 1891
 Mesocena Ehrenberg, 1843
-Selon World Register of Marine Species                               (30 août 2021)[3] :
+Selon World Register of Marine Species                               (30 août 2021) :
 Arctyocha
 Bachmannocena S.Locker, 1974
 Caryocha S.Bukry &amp; S.Monechi
@@ -616,7 +634,7 @@
 Septamesocena A.Bachmann, 1970
 Stephanocha K.McCartney &amp; R.W.Jordan, 2015
 Vicicitus F.H.Chang, 2012
-Un nouveau genre a été décrit en 2014, Gleserocha K.McCartney et al.[4] nommé en hommage à Zoya I. Gleser, pionnier dans l'identification des silicoflagellés  du Crétacé.
+Un nouveau genre a été décrit en 2014, Gleserocha K.McCartney et al. nommé en hommage à Zoya I. Gleser, pionnier dans l'identification des silicoflagellés  du Crétacé.
 </t>
         </is>
       </c>
